--- a/res/files/order_template.xlsx
+++ b/res/files/order_template.xlsx
@@ -14,78 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Окрошка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бифштекс яйцом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Солянка мясная </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крылышки барбекю </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борщ украинский </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бедро куриное отварное </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печень жареная (телятина) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отбивная куриная в яйце с сыром </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Котлета по-киевски </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гречка спорт режим </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рис отварной </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жюльен с курицей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Картошечка молодая </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рис с овощами </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Капусточка с свежая с зеленью </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Морская капуста </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кус Кус </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Морковка по-корейски </t>
   </si>
   <si>
     <t>Юрий 12-16.06</t>
@@ -476,7 +407,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +417,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -494,120 +425,70 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
